--- a/03.Clasificacion/Other_cycles/Other_cycles_p/PorIntervalos/Par_Other_CiclosMotorway.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_p/PorIntervalos/Par_Other_CiclosMotorway.xlsx
@@ -441,27 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>P_EPA_HWFET</t>
+          <t>EPA_HWFET</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>P_EPA_US06</t>
+          <t>EPA_US06</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>P_NEDC ECE</t>
+          <t>NEDC ECE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>P_RDE_95</t>
+          <t>RDE_95</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>P_WLTC Class3</t>
+          <t>WLTC Class3</t>
         </is>
       </c>
     </row>
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16513.47185</v>
+        <v>5983.17741</v>
       </c>
       <c r="C2" t="n">
-        <v>11673.61806</v>
+        <v>5978.41822</v>
       </c>
       <c r="D2" t="n">
-        <v>6954.72234</v>
+        <v>5963.00937</v>
       </c>
       <c r="E2" t="n">
-        <v>57042.59815</v>
+        <v>5972.67593</v>
       </c>
       <c r="F2" t="n">
-        <v>15412.11111</v>
+        <v>5972.69213</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>765</v>
+        <v>317</v>
       </c>
       <c r="C3" t="n">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="D3" t="n">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="E3" t="n">
-        <v>2800</v>
+        <v>496</v>
       </c>
       <c r="F3" t="n">
-        <v>777</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.60901</v>
+        <v>67.73408000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>92.97572</v>
+        <v>83.41979000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>62.5925</v>
+        <v>63.88939</v>
       </c>
       <c r="E4" t="n">
-        <v>73.3143</v>
+        <v>43.26284</v>
       </c>
       <c r="F4" t="n">
-        <v>71.31568</v>
+        <v>65.55394</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.43899999999999</v>
+        <v>79.69499999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>129.283</v>
+        <v>116.081</v>
       </c>
       <c r="D5" t="n">
         <v>120</v>
       </c>
       <c r="E5" t="n">
-        <v>159.29</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>131.3</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.024</v>
+        <v>73.71454</v>
       </c>
       <c r="C6" t="n">
-        <v>111.12936</v>
+        <v>99.75039</v>
       </c>
       <c r="D6" t="n">
-        <v>91.29625</v>
+        <v>91.94468999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>116.30215</v>
+        <v>71.37642</v>
       </c>
       <c r="F6" t="n">
-        <v>101.30784</v>
+        <v>81.47696999999999</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.17179</v>
+        <v>0.22179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40009</v>
+        <v>0.51936</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19196</v>
+        <v>0.19298</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5265300000000001</v>
+        <v>0.70903</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3538</v>
+        <v>0.39892</v>
       </c>
     </row>
     <row r="8">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="C9" t="n">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="n">
-        <v>1151</v>
+        <v>223</v>
       </c>
       <c r="F9" t="n">
-        <v>263</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>1057</v>
+        <v>188</v>
       </c>
       <c r="F10" t="n">
-        <v>251</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="D11" t="n">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="E11" t="n">
-        <v>2208</v>
+        <v>411</v>
       </c>
       <c r="F11" t="n">
-        <v>514</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0602</v>
+        <v>0.09233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.14506</v>
+        <v>0.21567</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09417</v>
+        <v>0.10983</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21728</v>
+        <v>0.36522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.12391</v>
+        <v>0.12852</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.17257</v>
+        <v>-0.17439</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3934</v>
+        <v>-0.38263</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.20588</v>
+        <v>-0.04737</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.59766</v>
+        <v>-0.7598</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.32085</v>
+        <v>-0.25905</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.53546</v>
+        <v>-1.14042</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.84359</v>
+        <v>-2.6237</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.50463</v>
+        <v>-0.75231</v>
       </c>
       <c r="E14" t="n">
         <v>-2.19051</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.57639</v>
+        <v>-1.5162</v>
       </c>
     </row>
     <row r="15">
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.78431</v>
+        <v>0.94637</v>
       </c>
       <c r="C15" t="n">
-        <v>3.54767</v>
+        <v>5.83658</v>
       </c>
       <c r="D15" t="n">
-        <v>10.27569</v>
+        <v>5.97015</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1.00806</v>
       </c>
       <c r="F15" t="n">
-        <v>4.7619</v>
+        <v>1.22324</v>
       </c>
     </row>
     <row r="16">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.34641000000001</v>
+        <v>99.36909</v>
       </c>
       <c r="C16" t="n">
-        <v>96.67406</v>
+        <v>94.55253</v>
       </c>
       <c r="D16" t="n">
-        <v>89.97494</v>
+        <v>94.32836</v>
       </c>
       <c r="E16" t="n">
-        <v>98.03570999999999</v>
+        <v>99.19355</v>
       </c>
       <c r="F16" t="n">
-        <v>95.3668</v>
+        <v>99.08257</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.02614</v>
+        <v>42.58675</v>
       </c>
       <c r="C17" t="n">
-        <v>30.37694</v>
+        <v>26.45914</v>
       </c>
       <c r="D17" t="n">
-        <v>51.62907</v>
+        <v>58.80597</v>
       </c>
       <c r="E17" t="n">
-        <v>19.17857</v>
+        <v>16.33065</v>
       </c>
       <c r="F17" t="n">
-        <v>29.72973</v>
+        <v>40.97859</v>
       </c>
     </row>
     <row r="18">
@@ -824,19 +824,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.32026</v>
+        <v>56.78233</v>
       </c>
       <c r="C18" t="n">
-        <v>66.29712000000001</v>
+        <v>68.09339</v>
       </c>
       <c r="D18" t="n">
-        <v>38.34586</v>
+        <v>35.52239</v>
       </c>
       <c r="E18" t="n">
-        <v>78.85714</v>
+        <v>82.8629</v>
       </c>
       <c r="F18" t="n">
-        <v>65.63706999999999</v>
+        <v>58.10398</v>
       </c>
     </row>
     <row r="19">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.70491</v>
+        <v>23.78104</v>
       </c>
       <c r="C19" t="n">
-        <v>94.93037</v>
+        <v>54.08407</v>
       </c>
       <c r="D19" t="n">
-        <v>14.46762</v>
+        <v>10.57873</v>
       </c>
       <c r="E19" t="n">
-        <v>552.59028</v>
+        <v>153.08287</v>
       </c>
       <c r="F19" t="n">
-        <v>80.4537</v>
+        <v>35.11574</v>
       </c>
     </row>
     <row r="20">
@@ -868,19 +868,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00283</v>
+        <v>0.00397</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00813</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00208</v>
+        <v>0.00177</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009690000000000001</v>
+        <v>0.02563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00522</v>
+        <v>0.00588</v>
       </c>
     </row>
     <row r="21">
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>131.88956</v>
+        <v>64.55653</v>
       </c>
       <c r="C21" t="n">
-        <v>179.31375</v>
+        <v>118.6816</v>
       </c>
       <c r="D21" t="n">
-        <v>79.47049</v>
+        <v>45.76679</v>
       </c>
       <c r="E21" t="n">
-        <v>1568.13356</v>
+        <v>363.65856</v>
       </c>
       <c r="F21" t="n">
-        <v>261.81019</v>
+        <v>107.7662</v>
       </c>
     </row>
     <row r="22">
@@ -912,19 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.01079</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01536</v>
+        <v>0.01985</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01143</v>
+        <v>0.00768</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02749</v>
+        <v>0.06089</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01699</v>
+        <v>0.01804</v>
       </c>
     </row>
     <row r="23">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.16489</v>
+        <v>64.19986</v>
       </c>
       <c r="C23" t="n">
-        <v>176.36451</v>
+        <v>116.02949</v>
       </c>
       <c r="D23" t="n">
-        <v>77.94221</v>
+        <v>45.3854</v>
       </c>
       <c r="E23" t="n">
-        <v>1568.13356</v>
+        <v>363.65856</v>
       </c>
       <c r="F23" t="n">
-        <v>259.77275</v>
+        <v>107.7662</v>
       </c>
     </row>
   </sheetData>
